--- a/Excel-XLSX/UN-COB.xlsx
+++ b/Excel-XLSX/UN-COB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="835">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>BdGu66</t>
+    <t>Ak5c2K</t>
   </si>
   <si>
     <t>1969</t>
@@ -2463,18 +2463,18 @@
     <t>471</t>
   </si>
   <si>
-    <t>29501</t>
-  </si>
-  <si>
-    <t>4820</t>
-  </si>
-  <si>
-    <t>2613</t>
-  </si>
-  <si>
     <t>472</t>
   </si>
   <si>
+    <t>29975</t>
+  </si>
+  <si>
+    <t>5246</t>
+  </si>
+  <si>
+    <t>2906</t>
+  </si>
+  <si>
     <t>473</t>
   </si>
   <si>
@@ -2484,18 +2484,18 @@
     <t>475</t>
   </si>
   <si>
-    <t>29095</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2836</t>
-  </si>
-  <si>
     <t>476</t>
   </si>
   <si>
+    <t>29005</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>3019</t>
+  </si>
+  <si>
     <t>478</t>
   </si>
   <si>
@@ -2505,19 +2505,22 @@
     <t>482</t>
   </si>
   <si>
-    <t>2998</t>
-  </si>
-  <si>
-    <t>7055</t>
-  </si>
-  <si>
     <t>483</t>
   </si>
   <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>7297</t>
+  </si>
+  <si>
     <t>484</t>
   </si>
   <si>
     <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
   </si>
 </sst>
 </file>
@@ -2902,7 +2905,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V486"/>
+  <dimension ref="A1:V487"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -34775,7 +34778,7 @@
         <v>32</v>
       </c>
       <c r="N469" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O469" s="2" t="s">
         <v>160</v>
@@ -34911,7 +34914,7 @@
         <v>32</v>
       </c>
       <c r="N471" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="O471" s="2" t="s">
         <v>48</v>
@@ -34929,7 +34932,7 @@
         <v>34</v>
       </c>
       <c r="T471" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="U471" s="1" t="s">
         <v>35</v>
@@ -34955,16 +34958,16 @@
         <v>812</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>69</v>
+        <v>683</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>70</v>
+        <v>684</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>71</v>
+        <v>685</v>
       </c>
       <c r="J472" s="2" t="s">
         <v>29</v>
@@ -34979,10 +34982,10 @@
         <v>32</v>
       </c>
       <c r="N472" s="2" t="s">
-        <v>815</v>
+        <v>34</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>816</v>
+        <v>58</v>
       </c>
       <c r="P472" s="2" t="s">
         <v>34</v>
@@ -34997,7 +35000,7 @@
         <v>34</v>
       </c>
       <c r="T472" s="2" t="s">
-        <v>817</v>
+        <v>34</v>
       </c>
       <c r="U472" s="1" t="s">
         <v>35</v>
@@ -35017,22 +35020,22 @@
         <v>22</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J473" s="2" t="s">
         <v>29</v>
@@ -35047,13 +35050,13 @@
         <v>32</v>
       </c>
       <c r="N473" s="2" t="s">
-        <v>117</v>
+        <v>816</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>162</v>
+        <v>817</v>
       </c>
       <c r="P473" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="Q473" s="2" t="s">
         <v>34</v>
@@ -35065,7 +35068,7 @@
         <v>34</v>
       </c>
       <c r="T473" s="2" t="s">
-        <v>34</v>
+        <v>818</v>
       </c>
       <c r="U473" s="1" t="s">
         <v>35</v>
@@ -35091,34 +35094,34 @@
         <v>812</v>
       </c>
       <c r="F474" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J474" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N474" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G474" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H474" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I474" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J474" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K474" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L474" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M474" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N474" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="O474" s="2" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="P474" s="2" t="s">
         <v>34</v>
@@ -35133,7 +35136,7 @@
         <v>34</v>
       </c>
       <c r="T474" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="U474" s="1" t="s">
         <v>35</v>
@@ -35159,16 +35162,16 @@
         <v>812</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="J475" s="2" t="s">
         <v>29</v>
@@ -35183,10 +35186,10 @@
         <v>32</v>
       </c>
       <c r="N475" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="P475" s="2" t="s">
         <v>34</v>
@@ -35201,7 +35204,7 @@
         <v>34</v>
       </c>
       <c r="T475" s="2" t="s">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="U475" s="1" t="s">
         <v>35</v>
@@ -35227,16 +35230,16 @@
         <v>812</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="J476" s="2" t="s">
         <v>29</v>
@@ -35251,10 +35254,10 @@
         <v>32</v>
       </c>
       <c r="N476" s="2" t="s">
-        <v>822</v>
+        <v>34</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>823</v>
+        <v>34</v>
       </c>
       <c r="P476" s="2" t="s">
         <v>34</v>
@@ -35269,7 +35272,7 @@
         <v>34</v>
       </c>
       <c r="T476" s="2" t="s">
-        <v>824</v>
+        <v>111</v>
       </c>
       <c r="U476" s="1" t="s">
         <v>35</v>
@@ -35289,22 +35292,22 @@
         <v>22</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="J477" s="2" t="s">
         <v>29</v>
@@ -35319,10 +35322,10 @@
         <v>32</v>
       </c>
       <c r="N477" s="2" t="s">
-        <v>34</v>
+        <v>823</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>40</v>
+        <v>824</v>
       </c>
       <c r="P477" s="2" t="s">
         <v>34</v>
@@ -35337,7 +35340,7 @@
         <v>34</v>
       </c>
       <c r="T477" s="2" t="s">
-        <v>34</v>
+        <v>825</v>
       </c>
       <c r="U477" s="1" t="s">
         <v>35</v>
@@ -35363,16 +35366,16 @@
         <v>812</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J478" s="2" t="s">
         <v>29</v>
@@ -35387,10 +35390,10 @@
         <v>32</v>
       </c>
       <c r="N478" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O478" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P478" s="2" t="s">
         <v>34</v>
@@ -35431,16 +35434,16 @@
         <v>812</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J479" s="2" t="s">
         <v>29</v>
@@ -35458,7 +35461,7 @@
         <v>48</v>
       </c>
       <c r="O479" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P479" s="2" t="s">
         <v>34</v>
@@ -35499,16 +35502,16 @@
         <v>812</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="J480" s="2" t="s">
         <v>29</v>
@@ -35523,10 +35526,10 @@
         <v>32</v>
       </c>
       <c r="N480" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O480" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="P480" s="2" t="s">
         <v>34</v>
@@ -35567,16 +35570,16 @@
         <v>812</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>569</v>
+        <v>194</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>570</v>
+        <v>195</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>570</v>
+        <v>196</v>
       </c>
       <c r="J481" s="2" t="s">
         <v>29</v>
@@ -35591,10 +35594,10 @@
         <v>32</v>
       </c>
       <c r="N481" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O481" s="2" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="P481" s="2" t="s">
         <v>34</v>
@@ -35635,16 +35638,16 @@
         <v>812</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>296</v>
+        <v>569</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>297</v>
+        <v>570</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>298</v>
+        <v>570</v>
       </c>
       <c r="J482" s="2" t="s">
         <v>29</v>
@@ -35659,25 +35662,25 @@
         <v>32</v>
       </c>
       <c r="N482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O482" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T482" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O482" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P482" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q482" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R482" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S482" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T482" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="U482" s="1" t="s">
         <v>35</v>
@@ -35703,16 +35706,16 @@
         <v>812</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="J483" s="2" t="s">
         <v>29</v>
@@ -35727,10 +35730,10 @@
         <v>32</v>
       </c>
       <c r="N483" s="2" t="s">
-        <v>829</v>
+        <v>48</v>
       </c>
       <c r="O483" s="2" t="s">
-        <v>719</v>
+        <v>90</v>
       </c>
       <c r="P483" s="2" t="s">
         <v>34</v>
@@ -35745,7 +35748,7 @@
         <v>34</v>
       </c>
       <c r="T483" s="2" t="s">
-        <v>830</v>
+        <v>48</v>
       </c>
       <c r="U483" s="1" t="s">
         <v>35</v>
@@ -35765,22 +35768,22 @@
         <v>22</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>578</v>
+        <v>83</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>578</v>
+        <v>83</v>
       </c>
       <c r="J484" s="2" t="s">
         <v>29</v>
@@ -35795,10 +35798,10 @@
         <v>32</v>
       </c>
       <c r="N484" s="2" t="s">
-        <v>34</v>
+        <v>830</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>48</v>
+        <v>749</v>
       </c>
       <c r="P484" s="2" t="s">
         <v>34</v>
@@ -35813,7 +35816,7 @@
         <v>34</v>
       </c>
       <c r="T484" s="2" t="s">
-        <v>34</v>
+        <v>831</v>
       </c>
       <c r="U484" s="1" t="s">
         <v>35</v>
@@ -35839,16 +35842,16 @@
         <v>812</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>217</v>
+        <v>577</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>219</v>
+        <v>578</v>
       </c>
       <c r="J485" s="2" t="s">
         <v>29</v>
@@ -35863,10 +35866,10 @@
         <v>32</v>
       </c>
       <c r="N485" s="2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>305</v>
+        <v>73</v>
       </c>
       <c r="P485" s="2" t="s">
         <v>34</v>
@@ -35881,7 +35884,7 @@
         <v>34</v>
       </c>
       <c r="T485" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="U485" s="1" t="s">
         <v>35</v>
@@ -35907,54 +35910,122 @@
         <v>812</v>
       </c>
       <c r="F486" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N486" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O486" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="P486" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q486" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R486" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S486" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T486" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V486" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F487" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G486" s="1" t="s">
+      <c r="G487" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H486" s="1" t="s">
+      <c r="H487" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="I486" s="1" t="s">
+      <c r="I487" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="J486" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K486" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L486" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M486" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N486" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O486" s="2" t="s">
+      <c r="J487" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N487" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O487" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P486" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q486" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R486" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S486" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T486" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U486" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V486" s="2" t="s">
+      <c r="P487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V487" s="2" t="s">
         <v>34</v>
       </c>
     </row>
